--- a/shulttlecock/shuttlecock_buy.xlsx
+++ b/shulttlecock/shuttlecock_buy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\badminton-payment\shulttlecock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{82D85435-8FBB-4D11-9A9A-7CDE4F190195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427685EB-4F44-49C4-B6FF-02F0A42D8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3510" yWindow="795" windowWidth="16815" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shuttlecock_buy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -61,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,17 +1148,35 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>715</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2960</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">

--- a/shulttlecock/shuttlecock_buy.xlsx
+++ b/shulttlecock/shuttlecock_buy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\badminton-payment\shulttlecock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1dd2fc4bf918acb/Projects/badminton-payment2/shulttlecock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427685EB-4F44-49C4-B6FF-02F0A42D8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{427685EB-4F44-49C4-B6FF-02F0A42D8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD9FF55-4CAE-4E91-8960-D9591837652B}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="795" windowWidth="16815" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="195" windowWidth="13425" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shuttlecock_buy" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -611,6 +611,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,12 +917,13 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
@@ -1180,31 +1185,67 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>710</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>710</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4260</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">

--- a/shulttlecock/shuttlecock_buy.xlsx
+++ b/shulttlecock/shuttlecock_buy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1dd2fc4bf918acb/Projects/badminton-payment2/shulttlecock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\badminton-payment\shulttlecock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{427685EB-4F44-49C4-B6FF-02F0A42D8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD9FF55-4CAE-4E91-8960-D9591837652B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9422E6E-460E-4D70-A5EE-158B6132BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="195" windowWidth="13425" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shuttlecock_buy" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -611,10 +611,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,283 +1245,99 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>710</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3550</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="e">
+        <v>60</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>710</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="e">
+        <v>12</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>710</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>87</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3637</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
+        <v>60</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
